--- a/SP_Sklad/TempLate/Invoice.xlsx
+++ b/SP_Sklad/TempLate/Invoice.xlsx
@@ -15,8 +15,9 @@
   <definedNames>
     <definedName name="_rsc1">РАХУНОК!#REF!</definedName>
     <definedName name="_rsc2">РАХУНОК!#REF!</definedName>
-    <definedName name="dbas">РАХУНОК!$B$28:$I$30</definedName>
+    <definedName name="dbas">РАХУНОК!$B$28:$I$29</definedName>
     <definedName name="dfs">#REF!</definedName>
+    <definedName name="EntAccount">РАХУНОК!$A$28:$I$29</definedName>
     <definedName name="query1_DOC_DATE" hidden="1">[1]XLR_NoRangeSheet!$C$6</definedName>
     <definedName name="query1_DOC_NUM" hidden="1">[1]XLR_NoRangeSheet!$B$6</definedName>
     <definedName name="query1_NDS" hidden="1">[1]XLR_NoRangeSheet!$H$6</definedName>
@@ -25,10 +26,11 @@
     <definedName name="query1_SUM" hidden="1">[1]XLR_NoRangeSheet!$I$6</definedName>
     <definedName name="query1_SUMMA" hidden="1">[1]XLR_NoRangeSheet!$G$6</definedName>
     <definedName name="range1">#REF!</definedName>
-    <definedName name="range2">РАХУНОК!$A$14:$N$15</definedName>
-    <definedName name="range4">РАХУНОК!$A$29:$I$30</definedName>
+    <definedName name="range2">РАХУНОК!#REF!</definedName>
+    <definedName name="range4">РАХУНОК!#REF!</definedName>
     <definedName name="range5">РАХУНОК!#REF!</definedName>
-    <definedName name="rsc">РАХУНОК!$B$28:$B$30</definedName>
+    <definedName name="rsc">РАХУНОК!$B$28:$B$29</definedName>
+    <definedName name="WayBillItems">РАХУНОК!$A$14:$N$15</definedName>
     <definedName name="ww">РАХУНОК!#REF!</definedName>
     <definedName name="WWW">РАХУНОК!#REF!</definedName>
   </definedNames>
@@ -93,6 +95,18 @@
     <t>РАЗОМ З ПДВ</t>
   </si>
   <si>
+    <t>ПДВ</t>
+  </si>
+  <si>
+    <t>Ціна без ПДВ</t>
+  </si>
+  <si>
+    <t>Сума без ПДВ</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
     <t>BANK</t>
   </si>
   <si>
@@ -112,18 +126,6 @@
   </si>
   <si>
     <t>CURR</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>ПДВ</t>
-  </si>
-  <si>
-    <t>Ціна без ПДВ</t>
-  </si>
-  <si>
-    <t>Сума без ПДВ</t>
   </si>
 </sst>
 </file>
@@ -298,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -564,11 +566,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,6 +688,60 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -658,6 +751,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -665,25 +797,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,78 +807,6 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1196,85 +1238,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="67"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="1" t="e">
         <f>WayBillList_KAU</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="e">
+      <c r="B2" s="63" t="e">
         <f>WayBillList_ENTKAFULLNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
-      <c r="N2" s="42" t="e">
+      <c r="N2" s="73" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="e">
+      <c r="B3" s="71" t="e">
         <f>WayBillList_AddressSEL</f>
         <v>#NAME?</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="42"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="e">
+      <c r="B4" s="72" t="e">
         <f>WayBillList_ENTKAPHONE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="43" t="e">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="74" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1290,25 +1332,26 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="73" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
+      <c r="C7" s="68" t="e">
+        <f>EntAccount_ACCNUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="70" t="e">
+      <c r="G7" s="65" t="e">
         <f>VLOOKUP(C7,dbas,2,1=1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="72"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="67"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -1331,12 +1374,12 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="38" t="e">
-        <f>VLOOKUP($C$7,dbas,7,1=1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="56" t="e">
+        <f>VLOOKUP(C7,dbas,7,1=1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1344,13 +1387,13 @@
       <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="38" t="e">
+      <c r="K9" s="56" t="e">
         <f>VLOOKUP(C7,dbas,3,1=1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="40"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1370,37 +1413,37 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="61" t="e">
-        <f>WayBillList_NAME&amp;" "&amp;WayBillList_AddressBUY</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="63"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="47" t="e">
+        <f>WayBillList_Name&amp;" "&amp;WayBillList_AddressBuy</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="26" t="s">
         <v>10</v>
       </c>
@@ -1408,14 +1451,14 @@
         <v>11</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1423,15 +1466,15 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="45" t="e">
+      <c r="C14" s="50" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="9" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1480,31 +1523,31 @@
       <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="57" t="e">
-        <f>Prop(K20,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="C16" s="43" t="e">
+        <f>WayBillList_www</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
       <c r="I16" s="15"/>
       <c r="J16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="50" t="str">
+      <c r="K16" s="75" t="str">
         <f>N15</f>
         <v>sum</v>
       </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="77"/>
     </row>
     <row r="17" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="12"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
@@ -1515,26 +1558,26 @@
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="12"/>
       <c r="I18" s="22"/>
       <c r="J18" s="20" t="e">
-        <f>"ПДВ "&amp;WayBillList_NDS&amp;"%"</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K18" s="50" t="e">
-        <f>K16*WayBillList_NDS/100</f>
+        <f>"ПДВ "&amp;WayBillList_Nds&amp;"%"</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K18" s="75" t="e">
+        <f>K16*WayBillList_Nds/100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="52"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="77"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I19" s="22"/>
@@ -1549,13 +1592,13 @@
       <c r="J20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="53" t="e">
+      <c r="K20" s="38" t="e">
         <f>K16+K18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="55"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I21" s="22"/>
@@ -1566,18 +1609,18 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44" t="s">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="44"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
@@ -1590,68 +1633,69 @@
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
     </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+    </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
-      <c r="B28" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>24</v>
-      </c>
+      <c r="B28" s="33" t="e">
+        <f>EntAccount_ACCNUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C28" s="34" t="e">
+        <f>EntAccount_BankName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D28" s="34" t="e">
+        <f>EntAccount_MFO</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34" t="e">
+        <f>EntAccount_OKPO</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I28" s="34"/>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33" t="e">
-        <f>EntAccount_ACCNUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C29" s="34" t="e">
-        <f>EntAccount_BANKSNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D29" s="34" t="e">
-        <f>EntAccount_MFO</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34" t="e">
-        <f>EntAccount_OKPO</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:H2"/>
@@ -1664,11 +1708,6 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="K20:N20"/>
@@ -1676,8 +1715,12 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="C16:F17"/>
     <mergeCell ref="D11:N11"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="C13:H13"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:E7">
       <formula1>rsc</formula1>
     </dataValidation>

--- a/SP_Sklad/TempLate/Invoice.xlsx
+++ b/SP_Sklad/TempLate/Invoice.xlsx
@@ -688,6 +688,72 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,72 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,9 +1219,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1238,85 +1236,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="62"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1" t="e">
         <f>WayBillList_KAU</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="e">
+      <c r="B2" s="45" t="e">
         <f>WayBillList_ENTKAFULLNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
-      <c r="N2" s="73" t="e">
+      <c r="N2" s="55" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="71" t="e">
+      <c r="B3" s="53" t="e">
         <f>WayBillList_AddressSEL</f>
         <v>#NAME?</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="73"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="72" t="e">
+      <c r="B4" s="54" t="e">
         <f>WayBillList_ENTKAPHONE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="74" t="e">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="56" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1332,26 +1330,26 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="68" t="e">
+      <c r="C7" s="50" t="e">
         <f>EntAccount_ACCNUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="65" t="e">
+      <c r="G7" s="47" t="e">
         <f>VLOOKUP(C7,dbas,2,1=1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -1374,12 +1372,12 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="56" t="e">
+      <c r="C9" s="38" t="e">
         <f>VLOOKUP(C7,dbas,7,1=1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1387,13 +1385,13 @@
       <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="56" t="e">
+      <c r="K9" s="38" t="e">
         <f>VLOOKUP(C7,dbas,3,1=1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1413,37 +1411,37 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="47" t="e">
+      <c r="C11" s="64"/>
+      <c r="D11" s="69" t="e">
         <f>WayBillList_Name&amp;" "&amp;WayBillList_AddressBuy</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="26" t="s">
         <v>10</v>
       </c>
@@ -1466,15 +1464,15 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="50" t="e">
+      <c r="C14" s="72" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="9" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1523,31 +1521,31 @@
       <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="43" t="e">
+      <c r="C16" s="65" t="e">
         <f>WayBillList_www</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
       <c r="I16" s="15"/>
       <c r="J16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="75" t="str">
+      <c r="K16" s="57" t="str">
         <f>N15</f>
         <v>sum</v>
       </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="77"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
     </row>
     <row r="17" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="12"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
@@ -1558,26 +1556,26 @@
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="12"/>
       <c r="I18" s="22"/>
       <c r="J18" s="20" t="e">
         <f>"ПДВ "&amp;WayBillList_Nds&amp;"%"</f>
         <v>#NAME?</v>
       </c>
-      <c r="K18" s="75" t="e">
+      <c r="K18" s="57" t="e">
         <f>K16*WayBillList_Nds/100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="77"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="59"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I19" s="22"/>
@@ -1592,13 +1590,13 @@
       <c r="J20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="38" t="e">
+      <c r="K20" s="60" t="e">
         <f>K16+K18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I21" s="22"/>
@@ -1609,18 +1607,18 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="41"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
@@ -1695,6 +1693,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B1:C1"/>
@@ -1710,15 +1717,6 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="D11:N11"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="C13:H13"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:E7">
